--- a/work.xlsx
+++ b/work.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
